--- a/Life 3.0.xlsx
+++ b/Life 3.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="27555" windowHeight="12180"/>
+    <workbookView xWindow="720" yWindow="765" windowWidth="27555" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -257,10 +258,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>15.905952381728898</c:v>
+                  <c:v>15.20476190550419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.691766042617072</c:v>
+                  <c:v>15.955934128905415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.20476190550419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.707629036521936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.241975309767037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.375077881423319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.510691822330767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.659042337480551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.510691822330767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.659042337480551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.810457516653353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.005019759146714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.053846153108259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.128927680792819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.053846153108259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.931160048348454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,10 +334,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>15.905952381728898</c:v>
+                  <c:v>15.20476190550419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.691766042617072</c:v>
+                  <c:v>15.955934128905415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.340545178807186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.690945078635687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.438111149582257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.450157464153975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.500551871471396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.933815210828008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.669106651471575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.233604698150273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.435305125501905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.848900540931634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.784773034226101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.099961858755247</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.746336422092259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.326361466567546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,11 +396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117835776"/>
-        <c:axId val="44267136"/>
+        <c:axId val="52134912"/>
+        <c:axId val="50408832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117835776"/>
+        <c:axId val="52134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +448,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44267136"/>
+        <c:crossAx val="50408832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -371,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44267136"/>
+        <c:axId val="50408832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117835776"/>
+        <c:crossAx val="52134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,7 +836,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,28 +900,28 @@
         <v>67</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E9" si="0">C2-A2</f>
+        <f t="shared" ref="E2:E14" si="0">C2-A2</f>
         <v>4.3055555557657499E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">D2-B2+1</f>
+        <f t="shared" ref="F2:F14" si="1">D2-B2+1</f>
         <v>56</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="2">F2/(E2*24*60)</f>
+        <f t="shared" ref="G2:G14" si="2">F2/(E2*24*60)</f>
         <v>0.90322580640751804</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="3">G2*60</f>
+        <f t="shared" ref="H2:H17" si="3">G2*60</f>
         <v>54.193548384451084</v>
       </c>
       <c r="I2" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H2)</f>
-        <v>15.905952381728898</v>
+        <v>15.20476190550419</v>
       </c>
       <c r="J2" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H2)</f>
-        <v>15.905952381728898</v>
+        <v>15.20476190550419</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,129 +938,561 @@
         <v>112</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3" si="4">C3-A3</f>
+        <f t="shared" si="0"/>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3" si="5">D3-B3+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3" si="6">F3/(E3*24*60)</f>
+        <f t="shared" si="2"/>
         <v>0.8181818181645002</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3" si="7">G3*60</f>
+        <f t="shared" si="3"/>
         <v>49.09090908987001</v>
       </c>
       <c r="I3" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H3)</f>
-        <v>16.691766042617072</v>
+        <v>15.955934128905415</v>
       </c>
       <c r="J3" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H3)</f>
-        <v>16.691766042617072</v>
+        <v>15.955934128905415</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="12">
+        <v>43105.713888888888</v>
+      </c>
+      <c r="B4">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43105.75277777778</v>
+      </c>
+      <c r="D4">
+        <v>166</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>3.888888889196096E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96428571420953946</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>57.857142852572366</v>
+      </c>
+      <c r="I4" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H4)</f>
+        <v>15.20476190550419</v>
+      </c>
+      <c r="J4" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H4)</f>
+        <v>15.340545178807186</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="12">
+        <v>43106.572222222225</v>
+      </c>
+      <c r="B5">
+        <v>167</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43106.611111111109</v>
+      </c>
+      <c r="D5">
+        <v>225</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8888888884685002E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0535714286853195</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>63.214285721119168</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H5)</f>
+        <v>14.707629036521936</v>
+      </c>
+      <c r="J5" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H5)</f>
+        <v>14.690945078635687</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="12">
+        <v>43111.832638888889</v>
+      </c>
+      <c r="B6">
+        <v>226</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43111.874305555553</v>
+      </c>
+      <c r="D6">
+        <v>286</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0166666667258444</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>61.00000000355066</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H6)</f>
+        <v>14.241975309767037</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H6)</f>
+        <v>14.438111149582257</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="12">
+        <v>43112.906944444447</v>
+      </c>
+      <c r="B7">
+        <v>287</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43112.945833333331</v>
+      </c>
+      <c r="D7">
+        <v>339</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8888888884685002E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94642857153088034</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>56.78571429185282</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
+        <v>14.375077881423319</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
+        <v>14.450157464153975</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="12">
+        <v>43113.795138888891</v>
+      </c>
+      <c r="B8">
+        <v>340</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43113.833333333336</v>
+      </c>
+      <c r="D8">
+        <v>390</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92727272725310028</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>55.636363635186015</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H8)</f>
+        <v>14.510691822330767</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H8)</f>
+        <v>14.500551871471396</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="12">
+        <v>43118.843055555553</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43118.881249999999</v>
+      </c>
+      <c r="D9">
+        <v>430</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7272727272573335</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>43.636363635440013</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H9)</f>
+        <v>14.659042337480551</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H9)</f>
+        <v>14.933815210828008</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="12">
+        <v>43119.697222222225</v>
+      </c>
+      <c r="B10">
+        <v>431</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43119.737500000003</v>
+      </c>
+      <c r="D10">
+        <v>492</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0277777778101154E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.068965517232797</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>64.137931033967817</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H10)</f>
+        <v>14.510691822330767</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H10)</f>
+        <v>14.669106651471575</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="12">
+        <v>43120.698611111111</v>
+      </c>
+      <c r="B11">
+        <v>493</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43120.737500000003</v>
+      </c>
+      <c r="D11">
+        <v>525</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.888888889196096E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58928571423916298</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>35.357142854349782</v>
+      </c>
+      <c r="I11" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H11)</f>
+        <v>14.659042337480551</v>
+      </c>
+      <c r="J11" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H11)</f>
+        <v>15.233604698150273</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="12">
+        <v>43125.679861111108</v>
+      </c>
+      <c r="B12">
+        <v>526</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43125.719444444447</v>
+      </c>
+      <c r="D12">
+        <v>569</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9583333338669036E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77192982445734992</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>46.315789467440993</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H12)</f>
+        <v>14.810457516653353</v>
+      </c>
+      <c r="J12" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H12)</f>
+        <v>15.435305125501905</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="12">
+        <v>43126.656944444447</v>
+      </c>
+      <c r="B13">
+        <v>570</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43126.694444444445</v>
+      </c>
+      <c r="D13">
+        <v>602</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7499999998544808E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6111111111348253</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>36.666666668089519</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H13)</f>
+        <v>15.005019759146714</v>
+      </c>
+      <c r="J13" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H13)</f>
+        <v>15.848900540931634</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="12">
+        <v>43127.879166666666</v>
+      </c>
+      <c r="B14">
+        <v>603</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43127.918749999997</v>
+      </c>
+      <c r="D14">
+        <v>654</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91228070179910326</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>54.736842107946195</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H14)</f>
+        <v>15.053846153108259</v>
+      </c>
+      <c r="J14" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H14)</f>
+        <v>15.784773034226101</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="12">
+        <v>43132.65902777778</v>
+      </c>
+      <c r="B15">
+        <v>655</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43132.698611111111</v>
+      </c>
+      <c r="D15">
+        <v>690</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" ref="E15" si="4">C15-A15</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="5">D15-B15+1</f>
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15" si="6">F15/(E15*24*60)</f>
+        <v>0.63157894739937914</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>37.894736843962747</v>
+      </c>
+      <c r="I15" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H15)</f>
+        <v>15.128927680792819</v>
+      </c>
+      <c r="J15" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H15)</f>
+        <v>16.099961858755247</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="A16" s="12">
+        <v>43133.767361111109</v>
+      </c>
+      <c r="B16">
+        <v>691</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43133.806944444441</v>
+      </c>
+      <c r="D16">
+        <v>755</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16" si="7">C16-A16</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="8">D16-B16+1</f>
+        <v>65</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16" si="9">F16/(E16*24*60)</f>
+        <v>1.1403508772488791</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>68.421052634932749</v>
+      </c>
+      <c r="I16" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H16)</f>
+        <v>15.053846153108259</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H16)</f>
+        <v>15.746336422092259</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="A17" s="12">
+        <v>43134.61041666667</v>
+      </c>
+      <c r="B17">
+        <v>756</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43134.648611111108</v>
+      </c>
+      <c r="D17">
+        <v>824</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" ref="E17" si="10">C17-A17</f>
+        <v>3.8194444437976927E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="11">D17-B17+1</f>
+        <v>69</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17" si="12">F17/(E17*24*60)</f>
+        <v>1.2545454547578885</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>75.272727285473309</v>
+      </c>
+      <c r="I17" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H17)</f>
+        <v>14.931160048348454</v>
+      </c>
+      <c r="J17" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H17)</f>
+        <v>15.326361466567546</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -1738,7 +2255,7 @@
   <dimension ref="A25:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="15">
-        <v>862</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +2277,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>112</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +2286,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>12.993039443155451</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +2295,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +2304,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>87.006960556844547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +2313,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>16.691766042617072</v>
+        <v>14.931160048348454</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +2322,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>16.691766042617072</v>
+        <v>15.326361466567546</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +2331,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0</v>
+        <v>0.39520141821909149</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1823,7 +2340,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>14.522998296940608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1832,7 +2349,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>14.522998296940608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,19 +2372,19 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.8194444445252884E-2</v>
+        <v>3.7499999998544808E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G36" s="4">
         <f>MIN(Sheet1!G2:G1000)</f>
-        <v>0.8181818181645002</v>
+        <v>0.58928571423916298</v>
       </c>
       <c r="H36" s="4">
         <f>MIN(Sheet1!H2:H1000)</f>
-        <v>49.09090908987001</v>
+        <v>35.357142854349782</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1880,15 +2397,15 @@
       </c>
       <c r="F37" s="4">
         <f>MAX(Sheet1!F2:F1000)</f>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G37" s="4">
         <f>MAX(Sheet1!G2:G1000)</f>
-        <v>0.90322580640751804</v>
+        <v>1.2545454547578885</v>
       </c>
       <c r="H37" s="4">
         <f>MAX(Sheet1!H2:H1000)</f>
-        <v>54.193548384451084</v>
+        <v>75.272727285473309</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,19 +2414,19 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>4.0625000001455192E-2</v>
+        <v>3.888888889196096E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>50.5</v>
+        <v>52.5</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.86070381228600912</v>
+        <v>0.91977671452610177</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>51.642228737160551</v>
+        <v>55.186602871566109</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1918,19 +2435,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>4.0625000001455192E-2</v>
+        <v>3.9322916666151286E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>50.5</v>
+        <v>50.8125</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.86070381228600912</v>
+        <v>0.89605960053146383</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>51.642228737160551</v>
+        <v>53.763576031887823</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1939,11 +2456,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:1:57:00</v>
+        <v>0:15:06:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>101</v>
+        <v>813</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
